--- a/2019/东京店/99 项目管理/Q&A_Levi‘s CMS System SI_(JP-TKY)_JP.xlsx
+++ b/2019/东京店/99 项目管理/Q&A_Levi‘s CMS System SI_(JP-TKY)_JP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\2019\东京店\99 项目管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\东京店\99 项目管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68A9F73-0DD9-4C4B-A7CB-16F062CF734B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="21960" windowHeight="10524"/>
+    <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="课题管理表" sheetId="2" r:id="rId1"/>
@@ -27,17 +28,24 @@
     <definedName name="Z_ECA4C4B1_6CF3_4CD3_B966_EAC9F90B228C_.wvu.FilterData" localSheetId="0" hidden="1">课题管理表!$A$5:$Q$5</definedName>
     <definedName name="Z_ECA4C4B1_6CF3_4CD3_B966_EAC9F90B228C_.wvu.PrintTitles" localSheetId="0" hidden="1">课题管理表!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="Q5" authorId="0" shapeId="0">
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="101">
   <si>
     <t>*</t>
   </si>
@@ -284,16 +292,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>済み確認</t>
-    <rPh sb="0" eb="1">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>POC選定</t>
     <rPh sb="3" eb="5">
       <t>せんてい</t>
@@ -1180,12 +1178,46 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>上海側規格説明書提出済み</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上海側手順書提出済み</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>荊さん担当</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提供してもらいました</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郭</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上海側担当</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認済み</t>
+    <rPh sb="0" eb="1">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -1193,9 +1225,8 @@
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="179" formatCode="m/d;@"/>
     <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="181" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1328,6 +1359,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1458,7 +1495,7 @@
     <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1557,10 +1594,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="180" fontId="16" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1632,22 +1665,114 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Grey" xfId="1"/>
-    <cellStyle name="Input [yellow]" xfId="2"/>
-    <cellStyle name="Normal - Style1" xfId="3"/>
-    <cellStyle name="Percent [2]" xfId="4"/>
-    <cellStyle name="センター" xfId="5"/>
-    <cellStyle name="標準_☆課題一覧_20070209" xfId="6"/>
+    <cellStyle name="Grey" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Input [yellow]" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal - Style1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Percent [2]" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="センター" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_☆課題一覧_20070209" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_08 課題管理一覧表" xfId="7"/>
-    <cellStyle name="桁蟻唇Ｆ [0.00]_Sheet1" xfId="8"/>
-    <cellStyle name="桁蟻唇Ｆ_Sheet1" xfId="9"/>
-    <cellStyle name="脱浦 [0.00]_laroux" xfId="10"/>
-    <cellStyle name="脱浦_laroux" xfId="11"/>
+    <cellStyle name="常规_08 課題管理一覧表" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="桁蟻唇Ｆ [0.00]_Sheet1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="桁蟻唇Ｆ_Sheet1" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="脱浦 [0.00]_laroux" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="脱浦_laroux" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="276">
+  <dxfs count="288">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3610,7 +3735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3692,7 +3823,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 5"/>
+        <xdr:cNvPr id="3" name="Text Box 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4010,7 +4147,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="http://file.elecfans.com/web1/M00/68/71/o4YBAFvFSCWABRfgAABGX1pPNf8998.png"/>
+        <xdr:cNvPr id="2" name="図 1" descr="http://file.elecfans.com/web1/M00/68/71/o4YBAFvFSCWABRfgAABGX1pPNf8998.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4339,17 +4482,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y243"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12"/>
@@ -4406,7 +4549,7 @@
       <c r="V1" s="28"/>
       <c r="W1" s="28"/>
       <c r="X1" s="28"/>
-      <c r="Y1" s="36"/>
+      <c r="Y1" s="35"/>
     </row>
     <row r="2" spans="1:25" ht="19.2">
       <c r="A2" s="11"/>
@@ -4432,7 +4575,10 @@
       <c r="P2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="29"/>
+      <c r="Q2" s="29" t="str">
+        <f>TEXT("2019/06/04","yyyy年m月d日;@")</f>
+        <v>2019年6月4日</v>
+      </c>
       <c r="R2" s="27" t="s">
         <v>0</v>
       </c>
@@ -4442,7 +4588,7 @@
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
       <c r="X2" s="28"/>
-      <c r="Y2" s="36"/>
+      <c r="Y2" s="35"/>
     </row>
     <row r="3" spans="1:25" ht="19.2">
       <c r="A3" s="11"/>
@@ -4462,15 +4608,15 @@
         <v>3</v>
       </c>
       <c r="O3" s="22">
-        <f>COUNTIF(B:B,"确认完成")</f>
-        <v>0</v>
+        <f>COUNTIF(B:B,"確認済み")</f>
+        <v>15</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="30" t="str">
-        <f ca="1">TEXT(NOW(),"yyyy年m月d日;@")</f>
-        <v>2019年6月29日</v>
+      <c r="Q3" s="29" t="str">
+        <f>TEXT("2019/08/01","yyyy年m月d日;@")</f>
+        <v>2019年8月1日</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>0</v>
@@ -4481,7 +4627,7 @@
       <c r="V3" s="28"/>
       <c r="W3" s="28"/>
       <c r="X3" s="28"/>
-      <c r="Y3" s="36"/>
+      <c r="Y3" s="35"/>
     </row>
     <row r="4" spans="1:25" ht="20.399999999999999" customHeight="1">
       <c r="A4" s="12"/>
@@ -4510,7 +4656,7 @@
       <c r="V4" s="28"/>
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
-      <c r="Y4" s="36"/>
+      <c r="Y4" s="35"/>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="24">
       <c r="A5" s="13" t="s">
@@ -4564,1160 +4710,1206 @@
       <c r="Q5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="U5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="33" t="s">
+      <c r="V5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="33" t="s">
+      <c r="X5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="33" t="s">
+      <c r="Y5" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="41" customFormat="1" ht="24">
-      <c r="A6" s="16">
+    <row r="6" spans="1:25" s="40" customFormat="1" ht="24">
+      <c r="A6" s="41">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="43">
+        <v>43620</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="43">
+        <v>43620</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="46">
+        <v>43678</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+    </row>
+    <row r="7" spans="1:25" s="40" customFormat="1" ht="24">
+      <c r="A7" s="41">
+        <v>2</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="43">
+        <v>43620</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="43">
+        <v>43620</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="43">
+        <v>43620</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="18">
+      <c r="T7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="X7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="40" customFormat="1" ht="36">
+      <c r="A8" s="41">
+        <v>3</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="43">
         <v>43620</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="D8" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="43">
         <v>43620</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F8" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G8" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="46">
+        <v>43621</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="W8" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="X8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="17" t="s">
+    </row>
+    <row r="9" spans="1:25" s="40" customFormat="1" ht="24">
+      <c r="A9" s="41">
+        <v>4</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="43">
+        <v>43620</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="43">
+        <v>43620</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="31" t="s">
+      <c r="K9" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="46">
+        <v>43627</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="46">
+        <v>43621</v>
+      </c>
+      <c r="Q9" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-    </row>
-    <row r="7" spans="1:25" s="41" customFormat="1" ht="24">
-      <c r="A7" s="16">
-        <v>2</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="S9" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="X9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="40" customFormat="1" ht="36">
+      <c r="A10" s="41">
+        <v>5</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="43">
         <v>43620</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D10" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="43">
         <v>43620</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="17" t="s">
+      <c r="F10" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="46">
+        <v>43621</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y10" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="40" customFormat="1" ht="36">
+      <c r="A11" s="41">
+        <v>6</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="43">
+        <v>43620</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="43">
+        <v>43620</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="38" t="s">
+      <c r="J11" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="46">
+        <v>43621</v>
+      </c>
+      <c r="O11" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="18">
+      <c r="P11" s="46"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="33"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+    </row>
+    <row r="12" spans="1:25" s="40" customFormat="1" ht="24">
+      <c r="A12" s="41">
+        <v>7</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="43">
         <v>43620</v>
       </c>
-      <c r="O7" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="31" t="s">
+      <c r="D12" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="43">
+        <v>43620</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="46">
+        <v>43678</v>
+      </c>
+      <c r="O12" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="46">
+        <v>43622</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="W7" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="X7" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="41" customFormat="1" ht="36">
-      <c r="A8" s="16">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="W12" s="33"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+    </row>
+    <row r="13" spans="1:25" s="40" customFormat="1" ht="24">
+      <c r="A13" s="41">
+        <v>8</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="43">
         <v>43620</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D13" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="43">
         <v>43620</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="17" t="s">
+      <c r="F13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="46">
+        <v>43621</v>
+      </c>
+      <c r="O13" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="46">
+        <v>43623</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="W13" s="33"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+    </row>
+    <row r="14" spans="1:25" s="40" customFormat="1" ht="24">
+      <c r="A14" s="41">
+        <v>9</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="43">
+        <v>43620</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="43">
+        <v>43620</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="26">
-        <v>43621</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="31" t="s">
+      <c r="K14" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="46">
+        <v>43620</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="X8" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y8" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="41" customFormat="1" ht="24">
-      <c r="A9" s="42">
-        <v>4</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="44">
-        <v>43620</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="44">
-        <v>43620</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" s="47">
-        <v>43627</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="47">
-        <v>43621</v>
-      </c>
-      <c r="Q9" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="X9" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y9" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="41" customFormat="1" ht="36">
-      <c r="A10" s="16">
-        <v>5</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="18">
-        <v>43620</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="18">
-        <v>43620</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="26">
-        <v>43621</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="X10" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y10" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="41" customFormat="1" ht="36">
-      <c r="A11" s="16">
-        <v>6</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="18">
-        <v>43620</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="18">
-        <v>43620</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="26">
-        <v>43621</v>
-      </c>
-      <c r="O11" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="W11" s="34"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-    </row>
-    <row r="12" spans="1:25" s="41" customFormat="1" ht="24">
-      <c r="A12" s="16">
-        <v>7</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="18">
-        <v>43620</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="18">
-        <v>43620</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="26">
-        <v>43622</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="W12" s="34"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-    </row>
-    <row r="13" spans="1:25" s="41" customFormat="1" ht="24">
-      <c r="A13" s="42">
-        <v>8</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="44">
-        <v>43620</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="44">
-        <v>43620</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" s="47">
-        <v>43621</v>
-      </c>
-      <c r="O13" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" s="47">
-        <v>43623</v>
-      </c>
-      <c r="Q13" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="V13" s="34" t="s">
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="W13" s="34"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-    </row>
-    <row r="14" spans="1:25" s="41" customFormat="1" ht="24">
-      <c r="A14" s="42">
-        <v>9</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="44">
-        <v>43620</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="44">
-        <v>43620</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="N14" s="47">
-        <v>43620</v>
-      </c>
-      <c r="O14" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="W14" s="34"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
     </row>
     <row r="15" spans="1:25" s="2" customFormat="1" ht="48">
-      <c r="A15" s="16">
+      <c r="A15" s="41">
         <f t="shared" ref="A15:A69" si="0">ROW()-5</f>
         <v>10</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="43">
         <v>43620</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D15" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="43">
         <v>43620</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="17" t="s">
+      <c r="F15" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="I15" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="26">
+      <c r="N15" s="46">
         <v>43621</v>
       </c>
-      <c r="O15" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="31" t="s">
+      <c r="O15" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="46">
+        <v>43678</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="W15" s="34"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" s="33"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
     </row>
     <row r="16" spans="1:25" s="2" customFormat="1" ht="35.549999999999997" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="43">
         <v>43621</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="43">
         <v>43621</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="17" t="s">
+      <c r="F16" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="26">
+      <c r="K16" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="46">
+        <v>43678</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="46">
         <v>43623</v>
       </c>
-      <c r="Q16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" s="31" t="s">
+      <c r="Q16" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16" s="34"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="W16" s="33"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
     </row>
     <row r="17" spans="1:25" s="2" customFormat="1" ht="60">
-      <c r="A17" s="16">
+      <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="B17" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="43">
         <v>43621</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="18">
+      <c r="D17" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="43">
         <v>43621</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="17" t="s">
+      <c r="F17" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="26">
+      <c r="K17" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="46">
+        <v>43678</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="46">
         <v>43623</v>
       </c>
-      <c r="Q17" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="R17" s="31" t="s">
+      <c r="Q17" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
     </row>
     <row r="18" spans="1:25" s="2" customFormat="1" ht="24">
-      <c r="A18" s="16">
+      <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="43">
         <v>43629</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="43">
+        <v>43629</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="18">
-        <v>43629</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="38" t="s">
+      <c r="L18" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="L18" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="26">
+      <c r="M18" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="46">
+        <v>43678</v>
+      </c>
+      <c r="O18" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="46">
         <v>43630</v>
       </c>
-      <c r="Q18" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="R18" s="31" t="s">
+      <c r="Q18" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="R18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
     </row>
     <row r="19" spans="1:25" s="2" customFormat="1" ht="60">
-      <c r="A19" s="16">
+      <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="B19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="43">
         <v>43629</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="43">
         <v>43629</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="17" t="s">
+      <c r="H19" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" s="37" t="s">
+      <c r="K19" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="26">
+      <c r="L19" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="46">
+        <v>43678</v>
+      </c>
+      <c r="O19" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="46">
         <v>43630</v>
       </c>
-      <c r="Q19" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="R19" s="31" t="s">
+      <c r="Q19" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="R19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
     </row>
     <row r="20" spans="1:25" s="2" customFormat="1" ht="60">
-      <c r="A20" s="16">
+      <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="B20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="43">
         <v>43629</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="D20" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="43">
         <v>43629</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="17" t="s">
+      <c r="F20" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="26">
+      <c r="K20" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="46">
+        <v>43678</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="46">
         <v>43630</v>
       </c>
-      <c r="Q20" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="R20" s="31" t="s">
+      <c r="Q20" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="R20" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-    </row>
-    <row r="21" spans="1:25" s="2" customFormat="1">
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+    </row>
+    <row r="21" spans="1:25" s="2" customFormat="1" ht="16.2">
       <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="18"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="25"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="49"/>
       <c r="N21" s="26"/>
-      <c r="O21" s="37"/>
+      <c r="O21" s="36"/>
       <c r="P21" s="26"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="31" t="s">
+      <c r="Q21" s="36"/>
+      <c r="R21" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
     </row>
     <row r="22" spans="1:25" s="2" customFormat="1">
       <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="18"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="25"/>
       <c r="N22" s="26"/>
-      <c r="O22" s="37"/>
+      <c r="O22" s="36"/>
       <c r="P22" s="26"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="31" t="s">
+      <c r="Q22" s="36"/>
+      <c r="R22" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
     </row>
     <row r="23" spans="1:25" s="2" customFormat="1">
       <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="37"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="18"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="25"/>
       <c r="N23" s="26"/>
-      <c r="O23" s="37"/>
+      <c r="O23" s="36"/>
       <c r="P23" s="26"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="31" t="s">
+      <c r="Q23" s="36"/>
+      <c r="R23" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
     </row>
     <row r="24" spans="1:25" s="2" customFormat="1">
       <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="37"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="18"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
-      <c r="O24" s="37"/>
+      <c r="O24" s="36"/>
       <c r="P24" s="26"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="31" t="s">
+      <c r="Q24" s="36"/>
+      <c r="R24" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
     </row>
     <row r="25" spans="1:25" s="2" customFormat="1">
       <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="37"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="18"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="25"/>
       <c r="N25" s="26"/>
-      <c r="O25" s="37"/>
+      <c r="O25" s="36"/>
       <c r="P25" s="26"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="31" t="s">
+      <c r="Q25" s="36"/>
+      <c r="R25" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
     </row>
     <row r="26" spans="1:25" s="2" customFormat="1">
       <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="18"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="25"/>
       <c r="N26" s="26"/>
-      <c r="O26" s="37"/>
+      <c r="O26" s="36"/>
       <c r="P26" s="26"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="31" t="s">
+      <c r="Q26" s="36"/>
+      <c r="R26" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S26" s="7"/>
@@ -5733,23 +5925,23 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="18"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="25"/>
       <c r="N27" s="26"/>
-      <c r="O27" s="37"/>
+      <c r="O27" s="36"/>
       <c r="P27" s="26"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="31" t="s">
+      <c r="Q27" s="36"/>
+      <c r="R27" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S27" s="7"/>
@@ -5765,23 +5957,23 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="18"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="25"/>
       <c r="N28" s="26"/>
-      <c r="O28" s="37"/>
+      <c r="O28" s="36"/>
       <c r="P28" s="26"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="31" t="s">
+      <c r="Q28" s="36"/>
+      <c r="R28" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S28" s="7"/>
@@ -5797,23 +5989,23 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="37"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="18"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="25"/>
       <c r="N29" s="26"/>
-      <c r="O29" s="37"/>
+      <c r="O29" s="36"/>
       <c r="P29" s="26"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="31" t="s">
+      <c r="Q29" s="36"/>
+      <c r="R29" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S29" s="7"/>
@@ -5829,23 +6021,23 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="37"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="18"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="36"/>
       <c r="M30" s="25"/>
       <c r="N30" s="26"/>
-      <c r="O30" s="37"/>
+      <c r="O30" s="36"/>
       <c r="P30" s="26"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="31" t="s">
+      <c r="Q30" s="36"/>
+      <c r="R30" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S30" s="7"/>
@@ -5861,23 +6053,23 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="37"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="18"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="36"/>
       <c r="M31" s="25"/>
       <c r="N31" s="26"/>
-      <c r="O31" s="37"/>
+      <c r="O31" s="36"/>
       <c r="P31" s="26"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="31" t="s">
+      <c r="Q31" s="36"/>
+      <c r="R31" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S31" s="7"/>
@@ -5893,23 +6085,23 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="37"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="18"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="25"/>
       <c r="N32" s="26"/>
-      <c r="O32" s="37"/>
+      <c r="O32" s="36"/>
       <c r="P32" s="26"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="31" t="s">
+      <c r="Q32" s="36"/>
+      <c r="R32" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S32" s="7"/>
@@ -5925,23 +6117,23 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B33" s="37"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="37"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="18"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="25"/>
       <c r="N33" s="26"/>
-      <c r="O33" s="37"/>
+      <c r="O33" s="36"/>
       <c r="P33" s="26"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="31" t="s">
+      <c r="Q33" s="36"/>
+      <c r="R33" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S33" s="7"/>
@@ -5957,23 +6149,23 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="37"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="18"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="25"/>
       <c r="N34" s="26"/>
-      <c r="O34" s="37"/>
+      <c r="O34" s="36"/>
       <c r="P34" s="26"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="31" t="s">
+      <c r="Q34" s="36"/>
+      <c r="R34" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S34" s="7"/>
@@ -5989,23 +6181,23 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B35" s="37"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="37"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="18"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="25"/>
       <c r="N35" s="26"/>
-      <c r="O35" s="37"/>
+      <c r="O35" s="36"/>
       <c r="P35" s="26"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="31" t="s">
+      <c r="Q35" s="36"/>
+      <c r="R35" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S35" s="7"/>
@@ -6021,23 +6213,23 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="37"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="18"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="25"/>
       <c r="N36" s="26"/>
-      <c r="O36" s="37"/>
+      <c r="O36" s="36"/>
       <c r="P36" s="26"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="31" t="s">
+      <c r="Q36" s="36"/>
+      <c r="R36" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S36" s="7"/>
@@ -6053,23 +6245,23 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B37" s="37"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="37"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="18"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="25"/>
       <c r="N37" s="26"/>
-      <c r="O37" s="37"/>
+      <c r="O37" s="36"/>
       <c r="P37" s="26"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="31" t="s">
+      <c r="Q37" s="36"/>
+      <c r="R37" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S37" s="7"/>
@@ -6085,23 +6277,23 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="37"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="18"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="36"/>
       <c r="M38" s="25"/>
       <c r="N38" s="26"/>
-      <c r="O38" s="37"/>
+      <c r="O38" s="36"/>
       <c r="P38" s="26"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="31" t="s">
+      <c r="Q38" s="36"/>
+      <c r="R38" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S38" s="7"/>
@@ -6117,23 +6309,23 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B39" s="37"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="37"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="18"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="36"/>
       <c r="M39" s="25"/>
       <c r="N39" s="26"/>
-      <c r="O39" s="37"/>
+      <c r="O39" s="36"/>
       <c r="P39" s="26"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="31" t="s">
+      <c r="Q39" s="36"/>
+      <c r="R39" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S39" s="7"/>
@@ -6149,23 +6341,23 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="37"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="18"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="36"/>
       <c r="M40" s="25"/>
       <c r="N40" s="26"/>
-      <c r="O40" s="37"/>
+      <c r="O40" s="36"/>
       <c r="P40" s="26"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="31" t="s">
+      <c r="Q40" s="36"/>
+      <c r="R40" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S40" s="7"/>
@@ -6181,23 +6373,23 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B41" s="37"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="37"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="18"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="36"/>
       <c r="M41" s="25"/>
       <c r="N41" s="26"/>
-      <c r="O41" s="37"/>
+      <c r="O41" s="36"/>
       <c r="P41" s="26"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="31" t="s">
+      <c r="Q41" s="36"/>
+      <c r="R41" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S41" s="7"/>
@@ -6213,23 +6405,23 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B42" s="37"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="37"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="18"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="36"/>
       <c r="M42" s="25"/>
       <c r="N42" s="26"/>
-      <c r="O42" s="37"/>
+      <c r="O42" s="36"/>
       <c r="P42" s="26"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="31" t="s">
+      <c r="Q42" s="36"/>
+      <c r="R42" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S42" s="7"/>
@@ -6245,23 +6437,23 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B43" s="37"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="37"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="18"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="36"/>
       <c r="M43" s="25"/>
       <c r="N43" s="26"/>
-      <c r="O43" s="37"/>
+      <c r="O43" s="36"/>
       <c r="P43" s="26"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="31" t="s">
+      <c r="Q43" s="36"/>
+      <c r="R43" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S43" s="7"/>
@@ -6277,23 +6469,23 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B44" s="37"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="37"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="18"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="36"/>
       <c r="M44" s="25"/>
       <c r="N44" s="26"/>
-      <c r="O44" s="37"/>
+      <c r="O44" s="36"/>
       <c r="P44" s="26"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="31" t="s">
+      <c r="Q44" s="36"/>
+      <c r="R44" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S44" s="7"/>
@@ -6309,23 +6501,23 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B45" s="37"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="37"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="18"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="36"/>
       <c r="M45" s="25"/>
       <c r="N45" s="26"/>
-      <c r="O45" s="37"/>
+      <c r="O45" s="36"/>
       <c r="P45" s="26"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="31" t="s">
+      <c r="Q45" s="36"/>
+      <c r="R45" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S45" s="7"/>
@@ -6341,23 +6533,23 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B46" s="37"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="37"/>
+      <c r="D46" s="36"/>
       <c r="E46" s="18"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="36"/>
       <c r="M46" s="25"/>
       <c r="N46" s="26"/>
-      <c r="O46" s="37"/>
+      <c r="O46" s="36"/>
       <c r="P46" s="26"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="31" t="s">
+      <c r="Q46" s="36"/>
+      <c r="R46" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S46" s="7"/>
@@ -6373,23 +6565,23 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="37"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="18"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="36"/>
       <c r="M47" s="25"/>
       <c r="N47" s="26"/>
-      <c r="O47" s="37"/>
+      <c r="O47" s="36"/>
       <c r="P47" s="26"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="31" t="s">
+      <c r="Q47" s="36"/>
+      <c r="R47" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S47" s="7"/>
@@ -6405,23 +6597,23 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B48" s="37"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="37"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="18"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="36"/>
       <c r="M48" s="25"/>
       <c r="N48" s="26"/>
-      <c r="O48" s="37"/>
+      <c r="O48" s="36"/>
       <c r="P48" s="26"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="31" t="s">
+      <c r="Q48" s="36"/>
+      <c r="R48" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S48" s="7"/>
@@ -6437,23 +6629,23 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B49" s="37"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="18"/>
-      <c r="D49" s="37"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="18"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="36"/>
       <c r="M49" s="25"/>
       <c r="N49" s="26"/>
-      <c r="O49" s="37"/>
+      <c r="O49" s="36"/>
       <c r="P49" s="26"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="31" t="s">
+      <c r="Q49" s="36"/>
+      <c r="R49" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S49" s="7"/>
@@ -6469,23 +6661,23 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B50" s="37"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="18"/>
-      <c r="D50" s="37"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="18"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="36"/>
       <c r="M50" s="25"/>
       <c r="N50" s="26"/>
-      <c r="O50" s="37"/>
+      <c r="O50" s="36"/>
       <c r="P50" s="26"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="31" t="s">
+      <c r="Q50" s="36"/>
+      <c r="R50" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S50" s="7"/>
@@ -6501,23 +6693,23 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="18"/>
-      <c r="D51" s="37"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="18"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="36"/>
       <c r="M51" s="25"/>
       <c r="N51" s="26"/>
-      <c r="O51" s="37"/>
+      <c r="O51" s="36"/>
       <c r="P51" s="26"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="31" t="s">
+      <c r="Q51" s="36"/>
+      <c r="R51" s="30" t="s">
         <v>0</v>
       </c>
       <c r="S51" s="7"/>
@@ -6533,23 +6725,23 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="18"/>
-      <c r="D52" s="37"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="18"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="36"/>
       <c r="M52" s="25"/>
       <c r="N52" s="26"/>
-      <c r="O52" s="37"/>
+      <c r="O52" s="36"/>
       <c r="P52" s="26"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="31" t="s">
+      <c r="Q52" s="36"/>
+      <c r="R52" s="30" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6558,23 +6750,23 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="18"/>
-      <c r="D53" s="37"/>
+      <c r="D53" s="36"/>
       <c r="E53" s="18"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="36"/>
       <c r="M53" s="25"/>
       <c r="N53" s="26"/>
-      <c r="O53" s="37"/>
+      <c r="O53" s="36"/>
       <c r="P53" s="26"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="31" t="s">
+      <c r="Q53" s="36"/>
+      <c r="R53" s="30" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6583,23 +6775,23 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B54" s="37"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="18"/>
-      <c r="D54" s="37"/>
+      <c r="D54" s="36"/>
       <c r="E54" s="18"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="36"/>
       <c r="M54" s="25"/>
       <c r="N54" s="26"/>
-      <c r="O54" s="37"/>
+      <c r="O54" s="36"/>
       <c r="P54" s="26"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="31" t="s">
+      <c r="Q54" s="36"/>
+      <c r="R54" s="30" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6608,23 +6800,23 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="18"/>
-      <c r="D55" s="37"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="18"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="36"/>
       <c r="M55" s="25"/>
       <c r="N55" s="26"/>
-      <c r="O55" s="37"/>
+      <c r="O55" s="36"/>
       <c r="P55" s="26"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="31" t="s">
+      <c r="Q55" s="36"/>
+      <c r="R55" s="30" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6633,23 +6825,23 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B56" s="37"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="18"/>
-      <c r="D56" s="37"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="18"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="36"/>
       <c r="M56" s="25"/>
       <c r="N56" s="26"/>
-      <c r="O56" s="37"/>
+      <c r="O56" s="36"/>
       <c r="P56" s="26"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="31" t="s">
+      <c r="Q56" s="36"/>
+      <c r="R56" s="30" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6658,23 +6850,23 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B57" s="37"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="37"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="18"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="36"/>
       <c r="M57" s="25"/>
       <c r="N57" s="26"/>
-      <c r="O57" s="37"/>
+      <c r="O57" s="36"/>
       <c r="P57" s="26"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="31" t="s">
+      <c r="Q57" s="36"/>
+      <c r="R57" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y57" s="7"/>
@@ -6684,23 +6876,23 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B58" s="37"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="18"/>
-      <c r="D58" s="37"/>
+      <c r="D58" s="36"/>
       <c r="E58" s="18"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="36"/>
       <c r="M58" s="25"/>
       <c r="N58" s="26"/>
-      <c r="O58" s="37"/>
+      <c r="O58" s="36"/>
       <c r="P58" s="26"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="31" t="s">
+      <c r="Q58" s="36"/>
+      <c r="R58" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y58" s="7"/>
@@ -6710,23 +6902,23 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="18"/>
-      <c r="D59" s="37"/>
+      <c r="D59" s="36"/>
       <c r="E59" s="18"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="36"/>
       <c r="M59" s="25"/>
       <c r="N59" s="26"/>
-      <c r="O59" s="37"/>
+      <c r="O59" s="36"/>
       <c r="P59" s="26"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="31" t="s">
+      <c r="Q59" s="36"/>
+      <c r="R59" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y59" s="7"/>
@@ -6736,23 +6928,23 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B60" s="37"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="18"/>
-      <c r="D60" s="37"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="18"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="36"/>
       <c r="M60" s="25"/>
       <c r="N60" s="26"/>
-      <c r="O60" s="37"/>
+      <c r="O60" s="36"/>
       <c r="P60" s="26"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="31" t="s">
+      <c r="Q60" s="36"/>
+      <c r="R60" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y60" s="7"/>
@@ -6762,23 +6954,23 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B61" s="37"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="18"/>
-      <c r="D61" s="37"/>
+      <c r="D61" s="36"/>
       <c r="E61" s="18"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="36"/>
       <c r="M61" s="25"/>
       <c r="N61" s="26"/>
-      <c r="O61" s="37"/>
+      <c r="O61" s="36"/>
       <c r="P61" s="26"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="31" t="s">
+      <c r="Q61" s="36"/>
+      <c r="R61" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y61" s="7"/>
@@ -6788,23 +6980,23 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B62" s="37"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="18"/>
-      <c r="D62" s="37"/>
+      <c r="D62" s="36"/>
       <c r="E62" s="18"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="36"/>
       <c r="M62" s="25"/>
       <c r="N62" s="26"/>
-      <c r="O62" s="37"/>
+      <c r="O62" s="36"/>
       <c r="P62" s="26"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="31" t="s">
+      <c r="Q62" s="36"/>
+      <c r="R62" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y62" s="7"/>
@@ -6814,23 +7006,23 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B63" s="37"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="18"/>
-      <c r="D63" s="37"/>
+      <c r="D63" s="36"/>
       <c r="E63" s="18"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="36"/>
       <c r="M63" s="25"/>
       <c r="N63" s="26"/>
-      <c r="O63" s="37"/>
+      <c r="O63" s="36"/>
       <c r="P63" s="26"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="31" t="s">
+      <c r="Q63" s="36"/>
+      <c r="R63" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y63" s="7"/>
@@ -6840,23 +7032,23 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B64" s="37"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="18"/>
-      <c r="D64" s="37"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="18"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="36"/>
       <c r="M64" s="25"/>
       <c r="N64" s="26"/>
-      <c r="O64" s="37"/>
+      <c r="O64" s="36"/>
       <c r="P64" s="26"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="31" t="s">
+      <c r="Q64" s="36"/>
+      <c r="R64" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y64" s="7"/>
@@ -6866,23 +7058,23 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B65" s="37"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="18"/>
-      <c r="D65" s="37"/>
+      <c r="D65" s="36"/>
       <c r="E65" s="18"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="36"/>
       <c r="M65" s="25"/>
       <c r="N65" s="26"/>
-      <c r="O65" s="37"/>
+      <c r="O65" s="36"/>
       <c r="P65" s="26"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="31" t="s">
+      <c r="Q65" s="36"/>
+      <c r="R65" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y65" s="7"/>
@@ -6892,23 +7084,23 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B66" s="37"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="18"/>
-      <c r="D66" s="37"/>
+      <c r="D66" s="36"/>
       <c r="E66" s="18"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="36"/>
       <c r="M66" s="25"/>
       <c r="N66" s="26"/>
-      <c r="O66" s="37"/>
+      <c r="O66" s="36"/>
       <c r="P66" s="26"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="31" t="s">
+      <c r="Q66" s="36"/>
+      <c r="R66" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y66" s="7"/>
@@ -6918,23 +7110,23 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B67" s="37"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="18"/>
-      <c r="D67" s="37"/>
+      <c r="D67" s="36"/>
       <c r="E67" s="18"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="37"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="36"/>
       <c r="M67" s="25"/>
       <c r="N67" s="26"/>
-      <c r="O67" s="37"/>
+      <c r="O67" s="36"/>
       <c r="P67" s="26"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="31" t="s">
+      <c r="Q67" s="36"/>
+      <c r="R67" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y67" s="7"/>
@@ -6944,23 +7136,23 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B68" s="37"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="18"/>
-      <c r="D68" s="37"/>
+      <c r="D68" s="36"/>
       <c r="E68" s="18"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="36"/>
       <c r="M68" s="25"/>
       <c r="N68" s="26"/>
-      <c r="O68" s="37"/>
+      <c r="O68" s="36"/>
       <c r="P68" s="26"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="31" t="s">
+      <c r="Q68" s="36"/>
+      <c r="R68" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y68" s="7"/>
@@ -6970,23 +7162,23 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B69" s="37"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="18"/>
-      <c r="D69" s="37"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="18"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="40"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="39"/>
       <c r="N69" s="26"/>
-      <c r="O69" s="37"/>
+      <c r="O69" s="36"/>
       <c r="P69" s="26"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="31" t="s">
+      <c r="Q69" s="36"/>
+      <c r="R69" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y69" s="7"/>
@@ -6996,23 +7188,23 @@
         <f t="shared" ref="A70:A75" si="1">ROW()-5</f>
         <v>65</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="18"/>
-      <c r="D70" s="37"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="18"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="36"/>
       <c r="M70" s="25"/>
       <c r="N70" s="26"/>
-      <c r="O70" s="37"/>
+      <c r="O70" s="36"/>
       <c r="P70" s="26"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="31" t="s">
+      <c r="Q70" s="36"/>
+      <c r="R70" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y70" s="7"/>
@@ -7022,23 +7214,23 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="18"/>
-      <c r="D71" s="37"/>
+      <c r="D71" s="36"/>
       <c r="E71" s="18"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="36"/>
       <c r="M71" s="25"/>
       <c r="N71" s="26"/>
-      <c r="O71" s="37"/>
+      <c r="O71" s="36"/>
       <c r="P71" s="26"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="31" t="s">
+      <c r="Q71" s="36"/>
+      <c r="R71" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y71" s="7"/>
@@ -7048,23 +7240,23 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="18"/>
-      <c r="D72" s="37"/>
+      <c r="D72" s="36"/>
       <c r="E72" s="18"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="36"/>
       <c r="M72" s="25"/>
       <c r="N72" s="26"/>
-      <c r="O72" s="37"/>
+      <c r="O72" s="36"/>
       <c r="P72" s="26"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="31" t="s">
+      <c r="Q72" s="36"/>
+      <c r="R72" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y72" s="7"/>
@@ -7074,23 +7266,23 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B73" s="37"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="18"/>
-      <c r="D73" s="37"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="18"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="36"/>
       <c r="M73" s="25"/>
       <c r="N73" s="26"/>
-      <c r="O73" s="37"/>
+      <c r="O73" s="36"/>
       <c r="P73" s="26"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="31" t="s">
+      <c r="Q73" s="36"/>
+      <c r="R73" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y73" s="7"/>
@@ -7100,23 +7292,23 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="18"/>
-      <c r="D74" s="37"/>
+      <c r="D74" s="36"/>
       <c r="E74" s="18"/>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="36"/>
       <c r="M74" s="25"/>
       <c r="N74" s="26"/>
-      <c r="O74" s="37"/>
+      <c r="O74" s="36"/>
       <c r="P74" s="26"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="31" t="s">
+      <c r="Q74" s="36"/>
+      <c r="R74" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y74" s="7"/>
@@ -7126,23 +7318,23 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B75" s="37"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="18"/>
-      <c r="D75" s="37"/>
+      <c r="D75" s="36"/>
       <c r="E75" s="18"/>
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="36"/>
       <c r="M75" s="25"/>
       <c r="N75" s="26"/>
-      <c r="O75" s="37"/>
+      <c r="O75" s="36"/>
       <c r="P75" s="26"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="31" t="s">
+      <c r="Q75" s="36"/>
+      <c r="R75" s="30" t="s">
         <v>0</v>
       </c>
       <c r="Y75" s="7"/>
@@ -9846,108 +10038,152 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A5:Q75"/>
+  <autoFilter ref="A5:Q75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C29:Q29 C28:L28 N28:Q28 E30:K30 M30:P30 C30 N31:P31 M32:O32 C32:K32 F57:Q57 C57:C64 D59:D64 F65:Q65 E58:Q64">
-    <cfRule type="expression" dxfId="275" priority="478">
+    <cfRule type="expression" dxfId="287" priority="490">
       <formula>$B28="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="483">
+    <cfRule type="expression" dxfId="286" priority="495">
       <formula>$B28="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="484">
+    <cfRule type="expression" dxfId="285" priority="496">
       <formula>$B28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:Q27 C26:Q26">
-    <cfRule type="expression" dxfId="272" priority="475">
+    <cfRule type="expression" dxfId="284" priority="487">
       <formula>$B26="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="476">
+    <cfRule type="expression" dxfId="283" priority="488">
       <formula>$B26="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="477">
+    <cfRule type="expression" dxfId="282" priority="489">
       <formula>$B26="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:L28">
-    <cfRule type="expression" dxfId="269" priority="466">
+    <cfRule type="expression" dxfId="281" priority="478">
       <formula>$B26="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="467">
+    <cfRule type="expression" dxfId="280" priority="479">
       <formula>$B26="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="468">
+    <cfRule type="expression" dxfId="279" priority="480">
       <formula>$B26="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:K28">
-    <cfRule type="expression" dxfId="266" priority="469">
+    <cfRule type="expression" dxfId="278" priority="481">
       <formula>$B26="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="470">
+    <cfRule type="expression" dxfId="277" priority="482">
       <formula>$B26="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="471">
+    <cfRule type="expression" dxfId="276" priority="483">
       <formula>$B26="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:Q56">
-    <cfRule type="expression" dxfId="263" priority="463">
+    <cfRule type="expression" dxfId="275" priority="475">
       <formula>$B52="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="464">
+    <cfRule type="expression" dxfId="274" priority="476">
       <formula>$B52="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="465">
+    <cfRule type="expression" dxfId="273" priority="477">
       <formula>$B52="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="260" priority="457">
+    <cfRule type="expression" dxfId="272" priority="469">
       <formula>$B28="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="458">
+    <cfRule type="expression" dxfId="271" priority="470">
       <formula>$B28="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="459">
+    <cfRule type="expression" dxfId="270" priority="471">
       <formula>$B28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="257" priority="454">
+    <cfRule type="expression" dxfId="269" priority="466">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="455">
+    <cfRule type="expression" dxfId="268" priority="467">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="456">
+    <cfRule type="expression" dxfId="267" priority="468">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="254" priority="451">
+    <cfRule type="expression" dxfId="266" priority="463">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="452">
+    <cfRule type="expression" dxfId="265" priority="464">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="453">
+    <cfRule type="expression" dxfId="264" priority="465">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="251" priority="448">
+    <cfRule type="expression" dxfId="263" priority="460">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="449">
+    <cfRule type="expression" dxfId="262" priority="461">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="450">
+    <cfRule type="expression" dxfId="261" priority="462">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:K31 M31">
+    <cfRule type="expression" dxfId="260" priority="457">
+      <formula>$B31="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="458">
+      <formula>$B31="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="459">
+      <formula>$B31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="257" priority="454">
+      <formula>$B31="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="455">
+      <formula>$B31="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="456">
+      <formula>$B31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="expression" dxfId="254" priority="451">
+      <formula>$B31="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="452">
+      <formula>$B31="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="453">
+      <formula>$B31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31">
+    <cfRule type="expression" dxfId="251" priority="448">
+      <formula>$B31="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="449">
+      <formula>$B31="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="450">
+      <formula>$B31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="248" priority="445">
       <formula>$B31="暂停"</formula>
     </cfRule>
@@ -9958,524 +10194,524 @@
       <formula>$B31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="L32">
     <cfRule type="expression" dxfId="245" priority="442">
-      <formula>$B31="暂停"</formula>
+      <formula>$B32="暂停"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="244" priority="443">
-      <formula>$B31="取消"</formula>
+      <formula>$B32="取消"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="243" priority="444">
-      <formula>$B31="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="242" priority="439">
-      <formula>$B31="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="440">
-      <formula>$B31="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="441">
-      <formula>$B31="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q31">
-    <cfRule type="expression" dxfId="239" priority="436">
-      <formula>$B31="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="437">
-      <formula>$B31="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="438">
-      <formula>$B31="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="236" priority="433">
-      <formula>$B31="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="434">
-      <formula>$B31="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="435">
-      <formula>$B31="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="233" priority="430">
-      <formula>$B32="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="431">
-      <formula>$B32="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="432">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32">
-    <cfRule type="expression" dxfId="230" priority="427">
+    <cfRule type="expression" dxfId="242" priority="439">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="428">
+    <cfRule type="expression" dxfId="241" priority="440">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="429">
+    <cfRule type="expression" dxfId="240" priority="441">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="expression" dxfId="227" priority="424">
+    <cfRule type="expression" dxfId="239" priority="436">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="425">
+    <cfRule type="expression" dxfId="238" priority="437">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="426">
+    <cfRule type="expression" dxfId="237" priority="438">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="224" priority="301">
+    <cfRule type="expression" dxfId="236" priority="313">
       <formula>$B57="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="302">
+    <cfRule type="expression" dxfId="235" priority="314">
       <formula>$B57="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="303">
+    <cfRule type="expression" dxfId="234" priority="315">
       <formula>$B57="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="221" priority="298">
+    <cfRule type="expression" dxfId="233" priority="310">
       <formula>$B57="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="299">
+    <cfRule type="expression" dxfId="232" priority="311">
       <formula>$B57="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="300">
+    <cfRule type="expression" dxfId="231" priority="312">
       <formula>$B57="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="218" priority="295">
+    <cfRule type="expression" dxfId="230" priority="307">
       <formula>$B58="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="296">
+    <cfRule type="expression" dxfId="229" priority="308">
       <formula>$B58="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="297">
+    <cfRule type="expression" dxfId="228" priority="309">
       <formula>$B58="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:K67 M66:Q67 C68:Q69 C73:Q75 C70:K72 M70:Q72">
-    <cfRule type="expression" dxfId="215" priority="289">
+    <cfRule type="expression" dxfId="227" priority="301">
       <formula>$B66="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="290">
+    <cfRule type="expression" dxfId="226" priority="302">
       <formula>$B66="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="291">
+    <cfRule type="expression" dxfId="225" priority="303">
       <formula>$B66="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:E65">
-    <cfRule type="expression" dxfId="212" priority="286">
+    <cfRule type="expression" dxfId="224" priority="298">
       <formula>$B65="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="287">
+    <cfRule type="expression" dxfId="223" priority="299">
       <formula>$B65="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="288">
+    <cfRule type="expression" dxfId="222" priority="300">
       <formula>$B65="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66">
-    <cfRule type="expression" dxfId="209" priority="283">
+    <cfRule type="expression" dxfId="221" priority="295">
       <formula>$B66="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="284">
+    <cfRule type="expression" dxfId="220" priority="296">
       <formula>$B66="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="285">
+    <cfRule type="expression" dxfId="219" priority="297">
       <formula>$B66="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L67">
-    <cfRule type="expression" dxfId="206" priority="280">
+    <cfRule type="expression" dxfId="218" priority="292">
       <formula>$B67="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="281">
+    <cfRule type="expression" dxfId="217" priority="293">
       <formula>$B67="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="282">
+    <cfRule type="expression" dxfId="216" priority="294">
       <formula>$B67="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L70">
-    <cfRule type="expression" dxfId="203" priority="277">
+    <cfRule type="expression" dxfId="215" priority="289">
       <formula>$B70="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="278">
+    <cfRule type="expression" dxfId="214" priority="290">
       <formula>$B70="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="279">
+    <cfRule type="expression" dxfId="213" priority="291">
       <formula>$B70="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L71">
-    <cfRule type="expression" dxfId="200" priority="274">
+    <cfRule type="expression" dxfId="212" priority="286">
       <formula>$B71="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="275">
+    <cfRule type="expression" dxfId="211" priority="287">
       <formula>$B71="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="276">
+    <cfRule type="expression" dxfId="210" priority="288">
       <formula>$B71="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L72">
-    <cfRule type="expression" dxfId="197" priority="271">
+    <cfRule type="expression" dxfId="209" priority="283">
       <formula>$B72="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="272">
+    <cfRule type="expression" dxfId="208" priority="284">
       <formula>$B72="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="273">
+    <cfRule type="expression" dxfId="207" priority="285">
       <formula>$B72="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:O41 C33:K41">
-    <cfRule type="expression" dxfId="194" priority="193">
+    <cfRule type="expression" dxfId="206" priority="205">
       <formula>$B33="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="194">
+    <cfRule type="expression" dxfId="205" priority="206">
       <formula>$B33="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="195">
+    <cfRule type="expression" dxfId="204" priority="207">
       <formula>$B33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:L41">
-    <cfRule type="expression" dxfId="191" priority="190">
+    <cfRule type="expression" dxfId="203" priority="202">
       <formula>$B33="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="191">
+    <cfRule type="expression" dxfId="202" priority="203">
       <formula>$B33="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="192">
+    <cfRule type="expression" dxfId="201" priority="204">
       <formula>$B33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:P41">
-    <cfRule type="expression" dxfId="188" priority="187">
+    <cfRule type="expression" dxfId="200" priority="199">
       <formula>$B33="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="188">
+    <cfRule type="expression" dxfId="199" priority="200">
       <formula>$B33="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="189">
+    <cfRule type="expression" dxfId="198" priority="201">
       <formula>$B33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33:Q41">
-    <cfRule type="expression" dxfId="185" priority="184">
+    <cfRule type="expression" dxfId="197" priority="196">
       <formula>$B33="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="185">
+    <cfRule type="expression" dxfId="196" priority="197">
       <formula>$B33="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="186">
+    <cfRule type="expression" dxfId="195" priority="198">
       <formula>$B33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M42:O51 C42:K51">
-    <cfRule type="expression" dxfId="182" priority="181">
+    <cfRule type="expression" dxfId="194" priority="193">
       <formula>$B42="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="182">
+    <cfRule type="expression" dxfId="193" priority="194">
       <formula>$B42="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="183">
+    <cfRule type="expression" dxfId="192" priority="195">
       <formula>$B42="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42:L51">
-    <cfRule type="expression" dxfId="179" priority="178">
+    <cfRule type="expression" dxfId="191" priority="190">
       <formula>$B42="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="179">
+    <cfRule type="expression" dxfId="190" priority="191">
       <formula>$B42="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="180">
+    <cfRule type="expression" dxfId="189" priority="192">
       <formula>$B42="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:P51">
-    <cfRule type="expression" dxfId="176" priority="175">
+    <cfRule type="expression" dxfId="188" priority="187">
       <formula>$B42="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="176">
+    <cfRule type="expression" dxfId="187" priority="188">
       <formula>$B42="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="177">
+    <cfRule type="expression" dxfId="186" priority="189">
       <formula>$B42="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42:Q51">
-    <cfRule type="expression" dxfId="173" priority="172">
+    <cfRule type="expression" dxfId="185" priority="184">
       <formula>$B42="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="173">
+    <cfRule type="expression" dxfId="184" priority="185">
       <formula>$B42="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="174">
+    <cfRule type="expression" dxfId="183" priority="186">
       <formula>$B42="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:Q25">
-    <cfRule type="expression" dxfId="170" priority="169">
+    <cfRule type="expression" dxfId="182" priority="181">
       <formula>$B25="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="170">
+    <cfRule type="expression" dxfId="181" priority="182">
       <formula>$B25="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="171">
+    <cfRule type="expression" dxfId="180" priority="183">
       <formula>$B25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="167" priority="163">
+    <cfRule type="expression" dxfId="179" priority="175">
       <formula>$B25="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="164">
+    <cfRule type="expression" dxfId="178" priority="176">
       <formula>$B25="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="165">
+    <cfRule type="expression" dxfId="177" priority="177">
       <formula>$B25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:K25">
-    <cfRule type="expression" dxfId="164" priority="166">
+    <cfRule type="expression" dxfId="176" priority="178">
       <formula>$B25="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="167">
+    <cfRule type="expression" dxfId="175" priority="179">
       <formula>$B25="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="168">
+    <cfRule type="expression" dxfId="174" priority="180">
       <formula>$B25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:Q11 D12:D13 G14:Q14 I15:Q15 D16 N16:Q16 M17:Q17 C6:Q10 F12:Q13 C18:Q18 C21:Q24 M19:O19 F20:O20">
-    <cfRule type="expression" dxfId="161" priority="160">
+  <conditionalFormatting sqref="K11:Q11 D12:D13 G14:Q14 D16 C18:L18 C22:Q24 F20:L20 C21:L21 N21:Q21 N16:Q16 P17:Q18 I15:Q15 F12:Q13 C6:Q10">
+    <cfRule type="expression" dxfId="173" priority="172">
       <formula>$B6="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="161">
+    <cfRule type="expression" dxfId="172" priority="173">
       <formula>$B6="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="162">
+    <cfRule type="expression" dxfId="171" priority="174">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L15 L18 L20:L24">
-    <cfRule type="expression" dxfId="158" priority="154">
+    <cfRule type="expression" dxfId="170" priority="166">
       <formula>$B6="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="155">
+    <cfRule type="expression" dxfId="169" priority="167">
       <formula>$B6="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="156">
+    <cfRule type="expression" dxfId="168" priority="168">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:K10 K11 D12:D13 F12:K13 G14:K14 I15:K15 D16 C18:K18 C21:K24 F20:K20">
-    <cfRule type="expression" dxfId="155" priority="157">
+    <cfRule type="expression" dxfId="167" priority="169">
       <formula>$B6="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="158">
+    <cfRule type="expression" dxfId="166" priority="170">
       <formula>$B6="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="159">
+    <cfRule type="expression" dxfId="165" priority="171">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="152" priority="151">
+    <cfRule type="expression" dxfId="164" priority="163">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="152">
+    <cfRule type="expression" dxfId="163" priority="164">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="153">
+    <cfRule type="expression" dxfId="162" priority="165">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="expression" dxfId="149" priority="148">
+    <cfRule type="expression" dxfId="161" priority="160">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="149">
+    <cfRule type="expression" dxfId="160" priority="161">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="150">
+    <cfRule type="expression" dxfId="159" priority="162">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="146" priority="145">
+    <cfRule type="expression" dxfId="158" priority="157">
       <formula>$B8="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="146">
+    <cfRule type="expression" dxfId="157" priority="158">
       <formula>$B8="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="147">
+    <cfRule type="expression" dxfId="156" priority="159">
       <formula>$B8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="143" priority="142">
+    <cfRule type="expression" dxfId="155" priority="154">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="143">
+    <cfRule type="expression" dxfId="154" priority="155">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="144">
+    <cfRule type="expression" dxfId="153" priority="156">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="140" priority="139">
+    <cfRule type="expression" dxfId="152" priority="151">
       <formula>$B10="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="140">
+    <cfRule type="expression" dxfId="151" priority="152">
       <formula>$B10="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="141">
+    <cfRule type="expression" dxfId="150" priority="153">
       <formula>$B10="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:J11">
-    <cfRule type="expression" dxfId="137" priority="136">
+    <cfRule type="expression" dxfId="149" priority="148">
       <formula>$B11="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="137">
+    <cfRule type="expression" dxfId="148" priority="149">
       <formula>$B11="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="138">
+    <cfRule type="expression" dxfId="147" priority="150">
       <formula>$B11="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:J11">
-    <cfRule type="expression" dxfId="134" priority="133">
+    <cfRule type="expression" dxfId="146" priority="145">
       <formula>$B11="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="134">
+    <cfRule type="expression" dxfId="145" priority="146">
       <formula>$B11="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="135">
+    <cfRule type="expression" dxfId="144" priority="147">
       <formula>$B11="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="131" priority="130">
+    <cfRule type="expression" dxfId="143" priority="142">
       <formula>$B11="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="131">
+    <cfRule type="expression" dxfId="142" priority="143">
       <formula>$B11="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="132">
+    <cfRule type="expression" dxfId="141" priority="144">
       <formula>$B11="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="128" priority="127">
+    <cfRule type="expression" dxfId="140" priority="139">
       <formula>$B12="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="128">
+    <cfRule type="expression" dxfId="139" priority="140">
       <formula>$B12="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="129">
+    <cfRule type="expression" dxfId="138" priority="141">
       <formula>$B12="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="125" priority="124">
+    <cfRule type="expression" dxfId="137" priority="136">
       <formula>$B12="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="125">
+    <cfRule type="expression" dxfId="136" priority="137">
       <formula>$B12="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="126">
+    <cfRule type="expression" dxfId="135" priority="138">
       <formula>$B12="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="122" priority="121">
+    <cfRule type="expression" dxfId="134" priority="133">
       <formula>$B12="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="122">
+    <cfRule type="expression" dxfId="133" priority="134">
       <formula>$B12="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="123">
+    <cfRule type="expression" dxfId="132" priority="135">
       <formula>$B12="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="119" priority="118">
+    <cfRule type="expression" dxfId="131" priority="130">
       <formula>$B12="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="119">
+    <cfRule type="expression" dxfId="130" priority="131">
       <formula>$B12="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="120">
+    <cfRule type="expression" dxfId="129" priority="132">
       <formula>$B12="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="116" priority="115">
+    <cfRule type="expression" dxfId="128" priority="127">
       <formula>$B13="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="116">
+    <cfRule type="expression" dxfId="127" priority="128">
       <formula>$B13="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="117">
+    <cfRule type="expression" dxfId="126" priority="129">
       <formula>$B13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="113" priority="112">
+    <cfRule type="expression" dxfId="125" priority="124">
       <formula>$B13="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="113">
+    <cfRule type="expression" dxfId="124" priority="125">
       <formula>$B13="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="114">
+    <cfRule type="expression" dxfId="123" priority="126">
       <formula>$B13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="110" priority="109">
+    <cfRule type="expression" dxfId="122" priority="121">
       <formula>$B13="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="110">
+    <cfRule type="expression" dxfId="121" priority="122">
       <formula>$B13="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="111">
+    <cfRule type="expression" dxfId="120" priority="123">
       <formula>$B13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="107" priority="106">
+    <cfRule type="expression" dxfId="119" priority="118">
       <formula>$B13="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="107">
+    <cfRule type="expression" dxfId="118" priority="119">
       <formula>$B13="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="108">
+    <cfRule type="expression" dxfId="117" priority="120">
       <formula>$B13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14 F14">
+    <cfRule type="expression" dxfId="116" priority="115">
+      <formula>$B14="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="116">
+      <formula>$B14="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="117">
+      <formula>$B14="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 F14">
+    <cfRule type="expression" dxfId="113" priority="112">
+      <formula>$B14="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="113">
+      <formula>$B14="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="114">
+      <formula>$B14="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="110" priority="109">
+      <formula>$B14="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="110">
+      <formula>$B14="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="111">
+      <formula>$B14="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="107" priority="106">
+      <formula>$B14="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="107">
+      <formula>$B14="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="108">
+      <formula>$B14="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
     <cfRule type="expression" dxfId="104" priority="103">
       <formula>$B14="暂停"</formula>
     </cfRule>
@@ -10486,7 +10722,7 @@
       <formula>$B14="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 F14">
+  <conditionalFormatting sqref="E14">
     <cfRule type="expression" dxfId="101" priority="100">
       <formula>$B14="暂停"</formula>
     </cfRule>
@@ -10497,7 +10733,7 @@
       <formula>$B14="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="M14">
     <cfRule type="expression" dxfId="98" priority="97">
       <formula>$B14="暂停"</formula>
     </cfRule>
@@ -10508,84 +10744,84 @@
       <formula>$B14="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C15:H15">
     <cfRule type="expression" dxfId="95" priority="94">
-      <formula>$B14="暂停"</formula>
+      <formula>$B15="暂停"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="94" priority="95">
-      <formula>$B14="取消"</formula>
+      <formula>$B15="取消"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="93" priority="96">
-      <formula>$B14="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="92" priority="91">
-      <formula>$B14="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="92">
-      <formula>$B14="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="93">
-      <formula>$B14="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="89" priority="88">
-      <formula>$B14="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="89">
-      <formula>$B14="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="90">
-      <formula>$B14="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="86" priority="85">
-      <formula>$B14="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="86">
-      <formula>$B14="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="87">
-      <formula>$B14="完了"</formula>
+      <formula>$B15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:H15">
-    <cfRule type="expression" dxfId="83" priority="82">
+    <cfRule type="expression" dxfId="92" priority="91">
       <formula>$B15="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="91" priority="92">
       <formula>$B15="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="84">
-      <formula>$B15="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:H15">
-    <cfRule type="expression" dxfId="80" priority="79">
-      <formula>$B15="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="80">
-      <formula>$B15="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="81">
+    <cfRule type="expression" dxfId="90" priority="93">
       <formula>$B15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="77" priority="76">
+    <cfRule type="expression" dxfId="89" priority="88">
       <formula>$B15="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="88" priority="89">
       <formula>$B15="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="78">
+    <cfRule type="expression" dxfId="87" priority="90">
       <formula>$B15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:L16">
+    <cfRule type="expression" dxfId="86" priority="85">
+      <formula>$B16="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="86">
+      <formula>$B16="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="87">
+      <formula>$B16="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="expression" dxfId="83" priority="79">
+      <formula>$B16="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="80">
+      <formula>$B16="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="81">
+      <formula>$B16="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:K16">
+    <cfRule type="expression" dxfId="80" priority="82">
+      <formula>$B16="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="83">
+      <formula>$B16="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="84">
+      <formula>$B16="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="77" priority="76">
+      <formula>$B16="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="77">
+      <formula>$B16="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="78">
+      <formula>$B16="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
     <cfRule type="expression" dxfId="74" priority="73">
       <formula>$B16="暂停"</formula>
     </cfRule>
@@ -10596,29 +10832,7 @@
       <formula>$B16="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="71" priority="67">
-      <formula>$B16="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="68">
-      <formula>$B16="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="69">
-      <formula>$B16="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:K16">
-    <cfRule type="expression" dxfId="68" priority="70">
-      <formula>$B16="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="71">
-      <formula>$B16="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="72">
-      <formula>$B16="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="C16">
     <cfRule type="expression" dxfId="65" priority="64">
       <formula>$B16="暂停"</formula>
     </cfRule>
@@ -10629,7 +10843,7 @@
       <formula>$B16="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="C16">
     <cfRule type="expression" dxfId="62" priority="61">
       <formula>$B16="暂停"</formula>
     </cfRule>
@@ -10640,62 +10854,62 @@
       <formula>$B16="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="59" priority="58">
-      <formula>$B16="暂停"</formula>
+      <formula>$B17="暂停"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="59">
-      <formula>$B16="取消"</formula>
+      <formula>$B17="取消"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="57" priority="60">
-      <formula>$B16="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="56" priority="55">
-      <formula>$B16="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56">
-      <formula>$B16="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57">
-      <formula>$B16="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="53" priority="52">
-      <formula>$B16="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53">
-      <formula>$B16="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54">
-      <formula>$B16="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="50" priority="49">
-      <formula>$B16="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>$B16="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51">
-      <formula>$B16="完了"</formula>
+      <formula>$B17="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="47" priority="46">
+    <cfRule type="expression" dxfId="56" priority="55">
       <formula>$B17="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>$B17="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48">
+    <cfRule type="expression" dxfId="54" priority="57">
       <formula>$B17="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="F17:L17">
+    <cfRule type="expression" dxfId="53" priority="52">
+      <formula>$B17="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="53">
+      <formula>$B17="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="54">
+      <formula>$B17="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="expression" dxfId="50" priority="46">
+      <formula>$B17="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="47">
+      <formula>$B17="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>$B17="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:K17">
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>$B17="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="50">
+      <formula>$B17="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="51">
+      <formula>$B17="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
     <cfRule type="expression" dxfId="44" priority="43">
       <formula>$B17="暂停"</formula>
     </cfRule>
@@ -10706,7 +10920,7 @@
       <formula>$B17="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:L17">
+  <conditionalFormatting sqref="E17">
     <cfRule type="expression" dxfId="41" priority="40">
       <formula>$B17="暂停"</formula>
     </cfRule>
@@ -10717,172 +10931,172 @@
       <formula>$B17="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="38" priority="34">
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="38" priority="37">
       <formula>$B17="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>$B17="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$B17="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:K17">
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$B17="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$B17="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
-      <formula>$B17="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="32" priority="31">
-      <formula>$B17="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$B17="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33">
-      <formula>$B17="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="29" priority="28">
-      <formula>$B17="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$B17="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>$B17="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="26" priority="25">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>$B17="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$B17="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>$B17="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="23" priority="22">
-      <formula>$B17="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$B17="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>$B17="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:L19">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>$B19="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$B19="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>$B19="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>$B19="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>$B19="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>$B19="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:K19">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$B19="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>$B19="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$B19="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:Q19">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>$B19="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$B19="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$B19="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:E20">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>$B20="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$B20="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>$B20="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:E20">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>$B20="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$B20="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$B20="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:Q20">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>$B20="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$B20="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>$B20="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>$B21="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$B21="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>$B21="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M20">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$B16="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$B16="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$B16="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:N20">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$B17="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$B17="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>$B17="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:O20">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$B20="暂停"</formula>
+      <formula>$B17="暂停"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B20="取消"</formula>
+      <formula>$B17="取消"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$B20="完了"</formula>
+      <formula>$B17="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$S$6:$S$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B204">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B204" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B75" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$S$6:$S$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J75" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$X$6:$X$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F75" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>$U$6:$U$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G75" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>$V$6:$V$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H75" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>$W$6:$W$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I75" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>$Y$6:$Y$21</formula1>
     </dataValidation>
   </dataValidations>
@@ -10899,7 +11113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
